--- a/manual/output_1222_chunk_3.xlsx
+++ b/manual/output_1222_chunk_3.xlsx
@@ -6849,7 +6849,7 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>169.5</v>
+        <v>170.25</v>
       </c>
       <c r="E17" t="s">
         <v>2060</v>
@@ -6866,7 +6866,7 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1017</v>
+        <v>1021.5</v>
       </c>
       <c r="E18" t="s">
         <v>2059</v>
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>490.25</v>
+        <v>493.5</v>
       </c>
       <c r="E21" t="s">
         <v>2059</v>
@@ -7733,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="D69">
-        <v>473.25</v>
+        <v>474.5</v>
       </c>
       <c r="E69" t="s">
         <v>2059</v>
@@ -8158,7 +8158,7 @@
         <v>3</v>
       </c>
       <c r="D94">
-        <v>70.25</v>
+        <v>70.5</v>
       </c>
       <c r="E94" t="s">
         <v>2060</v>
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="D95">
-        <v>421.5</v>
+        <v>423</v>
       </c>
       <c r="E95" t="s">
         <v>2059</v>
@@ -10606,7 +10606,7 @@
         <v>2</v>
       </c>
       <c r="D238">
-        <v>700.5</v>
+        <v>704</v>
       </c>
       <c r="E238" t="s">
         <v>2059</v>
@@ -13156,7 +13156,7 @@
         <v>2</v>
       </c>
       <c r="D388">
-        <v>976.4029019535758</v>
+        <v>979.5340051985573</v>
       </c>
       <c r="E388" t="s">
         <v>2059</v>
@@ -13207,7 +13207,7 @@
         <v>80</v>
       </c>
       <c r="D391">
-        <v>139.75</v>
+        <v>140</v>
       </c>
       <c r="E391" t="s">
         <v>2060</v>
@@ -13224,7 +13224,7 @@
         <v>29</v>
       </c>
       <c r="D392">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E392" t="s">
         <v>2059</v>
@@ -16148,7 +16148,7 @@
         <v>1</v>
       </c>
       <c r="D564">
-        <v>178.5</v>
+        <v>178</v>
       </c>
       <c r="E564" t="s">
         <v>2059</v>
@@ -16182,7 +16182,7 @@
         <v>1</v>
       </c>
       <c r="D566">
-        <v>239.25</v>
+        <v>239</v>
       </c>
       <c r="E566" t="s">
         <v>2059</v>
@@ -16199,7 +16199,7 @@
         <v>1</v>
       </c>
       <c r="D567">
-        <v>239.25</v>
+        <v>239</v>
       </c>
       <c r="E567" t="s">
         <v>2059</v>
@@ -18307,7 +18307,7 @@
         <v>3</v>
       </c>
       <c r="D691">
-        <v>33</v>
+        <v>33.25</v>
       </c>
       <c r="E691" t="s">
         <v>2060</v>
@@ -18324,7 +18324,7 @@
         <v>1</v>
       </c>
       <c r="D692">
-        <v>1188</v>
+        <v>1197</v>
       </c>
       <c r="E692" t="s">
         <v>2059</v>
@@ -18460,7 +18460,7 @@
         <v>1</v>
       </c>
       <c r="D700">
-        <v>170.25</v>
+        <v>172.75</v>
       </c>
       <c r="E700" t="s">
         <v>2059</v>
@@ -19956,7 +19956,7 @@
         <v>1</v>
       </c>
       <c r="D788">
-        <v>559</v>
+        <v>559.25</v>
       </c>
       <c r="E788" t="s">
         <v>2059</v>
@@ -21333,7 +21333,7 @@
         <v>2</v>
       </c>
       <c r="D869">
-        <v>271.75</v>
+        <v>269.75</v>
       </c>
       <c r="E869" t="s">
         <v>2060</v>
@@ -21350,7 +21350,7 @@
         <v>1</v>
       </c>
       <c r="D870">
-        <v>1630.5</v>
+        <v>1618.5</v>
       </c>
       <c r="E870" t="s">
         <v>2059</v>
@@ -22999,7 +22999,7 @@
         <v>2</v>
       </c>
       <c r="D967">
-        <v>166.3675229422016</v>
+        <v>166.4716283673763</v>
       </c>
       <c r="E967" t="s">
         <v>2059</v>
@@ -23628,7 +23628,7 @@
         <v>1</v>
       </c>
       <c r="D1004">
-        <v>45.25</v>
+        <v>44.75</v>
       </c>
       <c r="E1004" t="s">
         <v>2059</v>
@@ -26008,7 +26008,7 @@
         <v>2</v>
       </c>
       <c r="D1144">
-        <v>879</v>
+        <v>881.75</v>
       </c>
       <c r="E1144" t="s">
         <v>2059</v>
@@ -31363,7 +31363,7 @@
         <v>3</v>
       </c>
       <c r="D1459">
-        <v>113.5</v>
+        <v>113.75</v>
       </c>
       <c r="E1459" t="s">
         <v>2060</v>
@@ -31380,7 +31380,7 @@
         <v>1</v>
       </c>
       <c r="D1460">
-        <v>681</v>
+        <v>682.5</v>
       </c>
       <c r="E1460" t="s">
         <v>2059</v>
@@ -32077,7 +32077,7 @@
         <v>3</v>
       </c>
       <c r="D1501">
-        <v>15</v>
+        <v>14.25</v>
       </c>
       <c r="E1501" t="s">
         <v>2060</v>
@@ -32094,7 +32094,7 @@
         <v>1</v>
       </c>
       <c r="D1502">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="E1502" t="s">
         <v>2059</v>
@@ -32366,7 +32366,7 @@
         <v>3</v>
       </c>
       <c r="D1518">
-        <v>177.5629432066598</v>
+        <v>177.6418636879082</v>
       </c>
       <c r="E1518" t="s">
         <v>2060</v>
@@ -32383,7 +32383,7 @@
         <v>1</v>
       </c>
       <c r="D1519">
-        <v>1065.377659239959</v>
+        <v>1065.851182127449</v>
       </c>
       <c r="E1519" t="s">
         <v>2059</v>
@@ -32434,7 +32434,7 @@
         <v>3</v>
       </c>
       <c r="D1522">
-        <v>175.5</v>
+        <v>176.5</v>
       </c>
       <c r="E1522" t="s">
         <v>2060</v>
@@ -32451,7 +32451,7 @@
         <v>1</v>
       </c>
       <c r="D1523">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="E1523" t="s">
         <v>2059</v>
@@ -32468,7 +32468,7 @@
         <v>3</v>
       </c>
       <c r="D1524">
-        <v>221.5</v>
+        <v>222.5</v>
       </c>
       <c r="E1524" t="s">
         <v>2060</v>
@@ -32485,7 +32485,7 @@
         <v>1</v>
       </c>
       <c r="D1525">
-        <v>1329</v>
+        <v>1335</v>
       </c>
       <c r="E1525" t="s">
         <v>2059</v>
@@ -32536,7 +32536,7 @@
         <v>3</v>
       </c>
       <c r="D1528">
-        <v>177.6039115547604</v>
+        <v>177.906540350334</v>
       </c>
       <c r="E1528" t="s">
         <v>2060</v>
@@ -32553,7 +32553,7 @@
         <v>1</v>
       </c>
       <c r="D1529">
-        <v>1065.623469328563</v>
+        <v>1067.439242102004</v>
       </c>
       <c r="E1529" t="s">
         <v>2059</v>
@@ -32570,7 +32570,7 @@
         <v>3</v>
       </c>
       <c r="D1530">
-        <v>177.695321322575</v>
+        <v>178.326387647785</v>
       </c>
       <c r="E1530" t="s">
         <v>2060</v>
@@ -32587,7 +32587,7 @@
         <v>1</v>
       </c>
       <c r="D1531">
-        <v>1066.17192793545</v>
+        <v>1069.95832588671</v>
       </c>
       <c r="E1531" t="s">
         <v>2059</v>
@@ -34491,7 +34491,7 @@
         <v>1</v>
       </c>
       <c r="D1643">
-        <v>768.75</v>
+        <v>769.25</v>
       </c>
       <c r="E1643" t="s">
         <v>2059</v>
@@ -37415,7 +37415,7 @@
         <v>2</v>
       </c>
       <c r="D1815">
-        <v>286.25</v>
+        <v>287.75</v>
       </c>
       <c r="E1815" t="s">
         <v>2059</v>
@@ -38452,7 +38452,7 @@
         <v>3</v>
       </c>
       <c r="D1876">
-        <v>196</v>
+        <v>196.25</v>
       </c>
       <c r="E1876" t="s">
         <v>2060</v>
@@ -38469,7 +38469,7 @@
         <v>1</v>
       </c>
       <c r="D1877">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="E1877" t="s">
         <v>2059</v>
@@ -38741,7 +38741,7 @@
         <v>2</v>
       </c>
       <c r="D1893">
-        <v>99.5</v>
+        <v>99.75</v>
       </c>
       <c r="E1893" t="s">
         <v>2059</v>
@@ -39370,7 +39370,7 @@
         <v>1</v>
       </c>
       <c r="D1930">
-        <v>273</v>
+        <v>274.25</v>
       </c>
       <c r="E1930" t="s">
         <v>2059</v>
@@ -39387,7 +39387,7 @@
         <v>1</v>
       </c>
       <c r="D1931">
-        <v>467.5</v>
+        <v>464.75</v>
       </c>
       <c r="E1931" t="s">
         <v>2059</v>
@@ -39438,7 +39438,7 @@
         <v>1</v>
       </c>
       <c r="D1934">
-        <v>485.75</v>
+        <v>482.75</v>
       </c>
       <c r="E1934" t="s">
         <v>2059</v>
@@ -40985,7 +40985,7 @@
         <v>1</v>
       </c>
       <c r="D2025">
-        <v>365</v>
+        <v>368.25</v>
       </c>
       <c r="E2025" t="s">
         <v>2059</v>
@@ -43042,7 +43042,7 @@
         <v>2</v>
       </c>
       <c r="D2146">
-        <v>245</v>
+        <v>244.75</v>
       </c>
       <c r="E2146" t="s">
         <v>2060</v>
@@ -43059,7 +43059,7 @@
         <v>1</v>
       </c>
       <c r="D2147">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="E2147" t="s">
         <v>2059</v>
@@ -44147,7 +44147,7 @@
         <v>1</v>
       </c>
       <c r="D2211">
-        <v>810.5</v>
+        <v>810</v>
       </c>
       <c r="E2211" t="s">
         <v>2059</v>
@@ -44827,7 +44827,7 @@
         <v>2</v>
       </c>
       <c r="D2251">
-        <v>976.402901953576</v>
+        <v>979.5340051985576</v>
       </c>
       <c r="E2251" t="s">
         <v>2059</v>
@@ -45082,7 +45082,7 @@
         <v>2</v>
       </c>
       <c r="D2266">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E2266" t="s">
         <v>2059</v>
@@ -47700,7 +47700,7 @@
         <v>10</v>
       </c>
       <c r="D2420">
-        <v>84.75</v>
+        <v>85</v>
       </c>
       <c r="E2420" t="s">
         <v>2060</v>
@@ -47717,7 +47717,7 @@
         <v>1</v>
       </c>
       <c r="D2421">
-        <v>1525.5</v>
+        <v>1530</v>
       </c>
       <c r="E2421" t="s">
         <v>2059</v>
@@ -49927,7 +49927,7 @@
         <v>3</v>
       </c>
       <c r="D2551">
-        <v>47.5</v>
+        <v>47.25</v>
       </c>
       <c r="E2551" t="s">
         <v>2060</v>
@@ -49944,7 +49944,7 @@
         <v>1</v>
       </c>
       <c r="D2552">
-        <v>1425</v>
+        <v>1417.5</v>
       </c>
       <c r="E2552" t="s">
         <v>2059</v>
@@ -50726,7 +50726,7 @@
         <v>10</v>
       </c>
       <c r="D2598">
-        <v>142.25</v>
+        <v>142</v>
       </c>
       <c r="E2598" t="s">
         <v>2060</v>
@@ -50743,7 +50743,7 @@
         <v>1</v>
       </c>
       <c r="D2599">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="E2599" t="s">
         <v>2059</v>
@@ -51406,7 +51406,7 @@
         <v>1</v>
       </c>
       <c r="D2638">
-        <v>916</v>
+        <v>916.25</v>
       </c>
       <c r="E2638" t="s">
         <v>2059</v>
@@ -51525,7 +51525,7 @@
         <v>3</v>
       </c>
       <c r="D2645">
-        <v>51.75</v>
+        <v>51.5</v>
       </c>
       <c r="E2645" t="s">
         <v>2060</v>
@@ -51542,7 +51542,7 @@
         <v>1</v>
       </c>
       <c r="D2646">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="E2646" t="s">
         <v>2059</v>
@@ -51559,7 +51559,7 @@
         <v>3</v>
       </c>
       <c r="D2647">
-        <v>58.75</v>
+        <v>58.5</v>
       </c>
       <c r="E2647" t="s">
         <v>2060</v>
@@ -51576,7 +51576,7 @@
         <v>1</v>
       </c>
       <c r="D2648">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="E2648" t="s">
         <v>2059</v>
@@ -51831,7 +51831,7 @@
         <v>2</v>
       </c>
       <c r="D2663">
-        <v>226.614383093901</v>
+        <v>226.6242401251674</v>
       </c>
       <c r="E2663" t="s">
         <v>2060</v>
@@ -51848,7 +51848,7 @@
         <v>1</v>
       </c>
       <c r="D2664">
-        <v>1812.915064751208</v>
+        <v>1812.993921001339</v>
       </c>
       <c r="E2664" t="s">
         <v>2059</v>
@@ -51899,7 +51899,7 @@
         <v>1</v>
       </c>
       <c r="D2667">
-        <v>320.5</v>
+        <v>317.25</v>
       </c>
       <c r="E2667" t="s">
         <v>2059</v>
@@ -54602,7 +54602,7 @@
         <v>1</v>
       </c>
       <c r="D2826">
-        <v>872.75</v>
+        <v>867.25</v>
       </c>
       <c r="E2826" t="s">
         <v>2059</v>
@@ -55673,7 +55673,7 @@
         <v>25</v>
       </c>
       <c r="D2889">
-        <v>280.9845613884252</v>
+        <v>281.089807023166</v>
       </c>
       <c r="E2889" t="s">
         <v>2060</v>
@@ -55690,7 +55690,7 @@
         <v>29</v>
       </c>
       <c r="D2890">
-        <v>561.9691227768504</v>
+        <v>562.1796140463319</v>
       </c>
       <c r="E2890" t="s">
         <v>2059</v>
@@ -56387,7 +56387,7 @@
         <v>1</v>
       </c>
       <c r="D2931">
-        <v>767</v>
+        <v>767.25</v>
       </c>
       <c r="E2931" t="s">
         <v>2059</v>
@@ -58563,7 +58563,7 @@
         <v>2</v>
       </c>
       <c r="D3059">
-        <v>274.5</v>
+        <v>274.25</v>
       </c>
       <c r="E3059" t="s">
         <v>2059</v>
@@ -59923,7 +59923,7 @@
         <v>2</v>
       </c>
       <c r="D3139">
-        <v>310.5730935952212</v>
+        <v>310.3683743907727</v>
       </c>
       <c r="E3139" t="s">
         <v>2059</v>
@@ -59940,7 +59940,7 @@
         <v>2</v>
       </c>
       <c r="D3140">
-        <v>310.5730935952212</v>
+        <v>310.3683743907727</v>
       </c>
       <c r="E3140" t="s">
         <v>2059</v>
@@ -59974,7 +59974,7 @@
         <v>2</v>
       </c>
       <c r="D3142">
-        <v>310.5730935952212</v>
+        <v>310.3683743907727</v>
       </c>
       <c r="E3142" t="s">
         <v>2059</v>
@@ -60297,7 +60297,7 @@
         <v>2</v>
       </c>
       <c r="D3161">
-        <v>1202.75</v>
+        <v>1206.75</v>
       </c>
       <c r="E3161" t="s">
         <v>2059</v>
@@ -60314,7 +60314,7 @@
         <v>2</v>
       </c>
       <c r="D3162">
-        <v>99.25</v>
+        <v>99</v>
       </c>
       <c r="E3162" t="s">
         <v>2059</v>
